--- a/M3/W12/Recommender_Q3.xlsx
+++ b/M3/W12/Recommender_Q3.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>The Lego Movie</t>
   </si>
@@ -142,7 +142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -246,6 +246,43 @@
       <right/>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -517,49 +554,49 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -878,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,14 +950,14 @@
       <c r="F1" s="17"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="57"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="54"/>
     </row>
     <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
@@ -932,22 +969,22 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="5"/>
-      <c r="K2" s="51" t="s">
+      <c r="K2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="52" t="s">
+      <c r="L2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="53" t="s">
+      <c r="M2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="52" t="s">
+      <c r="N2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="53" t="s">
+      <c r="O2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="54" t="s">
+      <c r="P2" s="51" t="s">
         <v>4</v>
       </c>
     </row>
@@ -961,22 +998,22 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="5"/>
-      <c r="K3" s="48">
+      <c r="K3" s="45">
         <v>3.953846</v>
       </c>
-      <c r="L3" s="49">
+      <c r="L3" s="46">
         <v>3.7093020000000001</v>
       </c>
-      <c r="M3" s="49">
+      <c r="M3" s="46">
         <v>3.9686870000000001</v>
       </c>
-      <c r="N3" s="49">
+      <c r="N3" s="46">
         <v>3.40625</v>
       </c>
-      <c r="O3" s="49">
+      <c r="O3" s="46">
         <v>3.58</v>
       </c>
-      <c r="P3" s="50">
+      <c r="P3" s="47">
         <v>3.6612900000000002</v>
       </c>
     </row>
@@ -1040,6 +1077,14 @@
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="30"/>
+      <c r="K7" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="57"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
@@ -1067,14 +1112,24 @@
       <c r="I8" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="47"/>
+      <c r="K8" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="P8" s="38" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
@@ -1918,9 +1973,9 @@
     </sortState>
   </autoFilter>
   <mergeCells count="4">
-    <mergeCell ref="K8:P8"/>
     <mergeCell ref="A1:E5"/>
     <mergeCell ref="K1:P1"/>
+    <mergeCell ref="K7:P7"/>
     <mergeCell ref="E7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
